--- a/보고서/[별첨]설문 답변 종합.xlsx
+++ b/보고서/[별첨]설문 답변 종합.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jekyh\Documents\SoW\보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E81E91-BE1D-4937-9F23-60164603B356}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66536A4B-06F1-4078-B892-5C89FAE26130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BF24CB6-7C9C-454E-930E-7EB809BB7B99}"/>
   </bookViews>
@@ -14813,11 +14813,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4701185-C0E2-4B3C-B058-32F7061B0131}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="16.5"/>
@@ -14895,7 +14897,7 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="33" hidden="1">
+    <row r="2" spans="1:28" ht="33">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14953,7 +14955,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="148.5" hidden="1">
+    <row r="3" spans="1:28" ht="148.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15013,7 +15015,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="49.5" hidden="1">
+    <row r="4" spans="1:28" ht="49.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15075,7 +15077,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="49.5" hidden="1">
+    <row r="5" spans="1:28" ht="49.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15135,7 +15137,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="33" hidden="1">
+    <row r="6" spans="1:28" ht="33">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15193,7 +15195,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="33" hidden="1">
+    <row r="7" spans="1:28" ht="33">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15251,7 +15253,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="33" hidden="1">
+    <row r="8" spans="1:28" ht="33">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15313,7 +15315,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="49.5" hidden="1">
+    <row r="9" spans="1:28" ht="49.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15373,7 +15375,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="66" hidden="1">
+    <row r="10" spans="1:28" ht="66">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15433,7 +15435,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="49.5" hidden="1">
+    <row r="11" spans="1:28" ht="49.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15493,7 +15495,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="33" hidden="1">
+    <row r="12" spans="1:28" ht="33">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15553,7 +15555,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="49.5" hidden="1">
+    <row r="13" spans="1:28" ht="49.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15611,7 +15613,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="132" hidden="1">
+    <row r="14" spans="1:28" ht="132">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15669,7 +15671,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="33" hidden="1">
+    <row r="15" spans="1:28" ht="33">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15731,7 +15733,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="99" hidden="1">
+    <row r="16" spans="1:28" ht="99">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15861,7 +15863,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:28" ht="33" hidden="1">
+    <row r="18" spans="1:28" ht="33">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15919,7 +15921,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="148.5" hidden="1">
+    <row r="19" spans="1:28" ht="148.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15979,7 +15981,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:28" ht="49.5" hidden="1">
+    <row r="20" spans="1:28" ht="49.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16039,7 +16041,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="33" hidden="1">
+    <row r="21" spans="1:28" ht="33">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16155,7 +16157,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="49.5" hidden="1">
+    <row r="23" spans="1:28" ht="49.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16277,7 +16279,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="1:28" ht="33" hidden="1">
+    <row r="25" spans="1:28" ht="33">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16337,7 +16339,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" ht="33" hidden="1">
+    <row r="26" spans="1:28" ht="33">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16395,7 +16397,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" ht="33" hidden="1">
+    <row r="27" spans="1:28" ht="33">
       <c r="A27">
         <v>26</v>
       </c>
@@ -16455,7 +16457,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="33" hidden="1">
+    <row r="28" spans="1:28" ht="33">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16511,7 +16513,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" ht="313.5" hidden="1">
+    <row r="29" spans="1:28" ht="313.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16571,7 +16573,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" ht="33" hidden="1">
+    <row r="30" spans="1:28" ht="33">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16631,7 +16633,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" ht="49.5" hidden="1">
+    <row r="31" spans="1:28" ht="49.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16689,7 +16691,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="33" hidden="1">
+    <row r="32" spans="1:28" ht="33">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16745,7 +16747,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="33" hidden="1">
+    <row r="33" spans="1:28" ht="33">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16873,7 +16875,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" ht="66" hidden="1">
+    <row r="35" spans="1:28" ht="66">
       <c r="A35">
         <v>34</v>
       </c>
@@ -16997,7 +16999,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="33" hidden="1">
+    <row r="37" spans="1:28" ht="33">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17055,7 +17057,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="49.5" hidden="1">
+    <row r="38" spans="1:28" ht="49.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17117,7 +17119,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28" ht="33" hidden="1">
+    <row r="39" spans="1:28" ht="33">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17177,7 +17179,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:28" ht="49.5" hidden="1">
+    <row r="40" spans="1:28" ht="49.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17303,7 +17305,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="1:28" ht="33" hidden="1">
+    <row r="42" spans="1:28" ht="33">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17361,7 +17363,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:28" ht="33" hidden="1">
+    <row r="43" spans="1:28" ht="33">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17477,7 +17479,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:28" ht="33" hidden="1">
+    <row r="45" spans="1:28" ht="33">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17533,7 +17535,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28" ht="49.5" hidden="1">
+    <row r="46" spans="1:28" ht="49.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17595,7 +17597,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:28" ht="33" hidden="1">
+    <row r="47" spans="1:28" ht="33">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17653,7 +17655,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:28" ht="49.5" hidden="1">
+    <row r="48" spans="1:28" ht="49.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17715,7 +17717,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" ht="66" hidden="1">
+    <row r="49" spans="1:28" ht="66">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17777,7 +17779,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" ht="49.5" hidden="1">
+    <row r="50" spans="1:28" ht="49.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17837,7 +17839,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" ht="165" hidden="1">
+    <row r="51" spans="1:28" ht="165">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17897,7 +17899,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" ht="49.5" hidden="1">
+    <row r="52" spans="1:28" ht="49.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17949,7 +17951,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" ht="33" hidden="1">
+    <row r="53" spans="1:28" ht="33">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18007,7 +18009,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" ht="33" hidden="1">
+    <row r="54" spans="1:28" ht="33">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18059,7 +18061,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
     </row>
-    <row r="55" spans="1:28" ht="33" hidden="1">
+    <row r="55" spans="1:28" ht="33">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18185,7 +18187,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
     </row>
-    <row r="57" spans="1:28" ht="346.5" hidden="1">
+    <row r="57" spans="1:28" ht="346.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18245,7 +18247,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="1:28" ht="49.5" hidden="1">
+    <row r="58" spans="1:28" ht="49.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18305,7 +18307,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
     </row>
-    <row r="59" spans="1:28" ht="49.5" hidden="1">
+    <row r="59" spans="1:28" ht="49.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18371,7 +18373,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
     </row>
-    <row r="60" spans="1:28" ht="66" hidden="1">
+    <row r="60" spans="1:28" ht="66">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18491,7 +18493,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
     </row>
-    <row r="62" spans="1:28" ht="33" hidden="1">
+    <row r="62" spans="1:28" ht="33">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18613,7 +18615,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
     </row>
-    <row r="64" spans="1:28" ht="66" hidden="1">
+    <row r="64" spans="1:28" ht="66">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18669,7 +18671,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
     </row>
-    <row r="65" spans="1:28" ht="409.5" hidden="1">
+    <row r="65" spans="1:28" ht="409.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18729,7 +18731,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
     </row>
-    <row r="66" spans="1:28" ht="49.5" hidden="1">
+    <row r="66" spans="1:28" ht="49.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18791,7 +18793,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="1:28" ht="33" hidden="1">
+    <row r="67" spans="1:28" ht="33">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18847,7 +18849,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
     </row>
-    <row r="68" spans="1:28" ht="409.5" hidden="1">
+    <row r="68" spans="1:28" ht="409.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -19027,7 +19029,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
     </row>
-    <row r="71" spans="1:28" ht="49.5" hidden="1">
+    <row r="71" spans="1:28" ht="49.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -19153,7 +19155,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
     </row>
-    <row r="73" spans="1:28" ht="49.5" hidden="1">
+    <row r="73" spans="1:28" ht="49.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -19211,7 +19213,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
     </row>
-    <row r="74" spans="1:28" ht="33" hidden="1">
+    <row r="74" spans="1:28" ht="33">
       <c r="A74">
         <v>73</v>
       </c>
@@ -19267,7 +19269,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
     </row>
-    <row r="75" spans="1:28" hidden="1">
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>74</v>
       </c>
@@ -19319,7 +19321,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
     </row>
-    <row r="76" spans="1:28" ht="33" hidden="1">
+    <row r="76" spans="1:28" ht="33">
       <c r="A76">
         <v>75</v>
       </c>
@@ -19377,7 +19379,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
     </row>
-    <row r="77" spans="1:28" ht="33" hidden="1">
+    <row r="77" spans="1:28" ht="33">
       <c r="A77">
         <v>76</v>
       </c>
@@ -19569,7 +19571,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
     </row>
-    <row r="80" spans="1:28" ht="181.5" hidden="1">
+    <row r="80" spans="1:28" ht="181.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -19631,7 +19633,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
     </row>
-    <row r="81" spans="1:28" ht="49.5" hidden="1">
+    <row r="81" spans="1:28" ht="49.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -19747,7 +19749,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
     </row>
-    <row r="83" spans="1:28" ht="66" hidden="1">
+    <row r="83" spans="1:28" ht="66">
       <c r="A83">
         <v>82</v>
       </c>
@@ -19867,7 +19869,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
     </row>
-    <row r="85" spans="1:28" ht="99" hidden="1">
+    <row r="85" spans="1:28" ht="99">
       <c r="A85">
         <v>84</v>
       </c>
@@ -19929,7 +19931,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
     </row>
-    <row r="86" spans="1:28" ht="33" hidden="1">
+    <row r="86" spans="1:28" ht="33">
       <c r="A86">
         <v>85</v>
       </c>
@@ -19985,7 +19987,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
     </row>
-    <row r="87" spans="1:28" ht="66" hidden="1">
+    <row r="87" spans="1:28" ht="66">
       <c r="A87">
         <v>86</v>
       </c>
@@ -20425,7 +20427,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
     </row>
-    <row r="94" spans="1:28" ht="99" hidden="1">
+    <row r="94" spans="1:28" ht="99">
       <c r="A94">
         <v>93</v>
       </c>
@@ -20549,7 +20551,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
     </row>
-    <row r="96" spans="1:28" ht="33" hidden="1">
+    <row r="96" spans="1:28" ht="33">
       <c r="A96">
         <v>95</v>
       </c>
@@ -20605,7 +20607,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
     </row>
-    <row r="97" spans="1:28" ht="33" hidden="1">
+    <row r="97" spans="1:28" ht="33">
       <c r="A97">
         <v>96</v>
       </c>
@@ -20667,7 +20669,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
     </row>
-    <row r="98" spans="1:28" ht="409.5" hidden="1">
+    <row r="98" spans="1:28" ht="409.5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -20917,7 +20919,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
     </row>
-    <row r="102" spans="1:28" ht="49.5" hidden="1">
+    <row r="102" spans="1:28" ht="49.5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -20979,7 +20981,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
     </row>
-    <row r="103" spans="1:28" ht="49.5" hidden="1">
+    <row r="103" spans="1:28" ht="49.5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -21103,7 +21105,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
     </row>
-    <row r="105" spans="1:28" ht="33" hidden="1">
+    <row r="105" spans="1:28" ht="33">
       <c r="A105">
         <v>104</v>
       </c>
@@ -21161,7 +21163,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
     </row>
-    <row r="106" spans="1:28" ht="49.5" hidden="1">
+    <row r="106" spans="1:28" ht="49.5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -21285,7 +21287,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
     </row>
-    <row r="108" spans="1:28" ht="66" hidden="1">
+    <row r="108" spans="1:28" ht="66">
       <c r="A108">
         <v>107</v>
       </c>
@@ -21477,7 +21479,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
     </row>
-    <row r="111" spans="1:28" ht="409.6" thickBot="1">
+    <row r="111" spans="1:28" ht="409.5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -21543,7 +21545,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
     </row>
-    <row r="112" spans="1:28" ht="99.75" hidden="1" thickBot="1">
+    <row r="112" spans="1:28" ht="99.75" thickBot="1">
       <c r="A112">
         <v>111</v>
       </c>
@@ -21601,7 +21603,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="78" hidden="1" thickBot="1">
+    <row r="113" spans="1:27" ht="78" thickBot="1">
       <c r="A113">
         <v>112</v>
       </c>
@@ -21851,7 +21853,7 @@
       <c r="Z116" s="3"/>
       <c r="AA116" s="3"/>
     </row>
-    <row r="117" spans="1:27" ht="17.25" hidden="1" thickBot="1">
+    <row r="117" spans="1:27" ht="17.25" thickBot="1">
       <c r="A117">
         <v>116</v>
       </c>
@@ -24737,21 +24739,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S120" xr:uid="{760396DA-1A51-47CB-B543-F4D4ADBB8EA4}">
-    <filterColumn colId="13">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="18">
-      <filters>
-        <filter val="입력 할래요!"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S120">
       <sortCondition ref="A1"/>
     </sortState>
@@ -24977,47 +24964,47 @@
         <v>265</v>
       </c>
       <c r="B6" s="21">
-        <f>SUM(B2:B5)</f>
+        <f t="shared" ref="B6:L6" si="0">SUM(B2:B5)</f>
         <v>119</v>
       </c>
       <c r="C6" s="21">
-        <f>SUM(C2:C5)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="D6" s="21">
-        <f>SUM(D2:D5)</f>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
       <c r="E6" s="21">
-        <f>SUM(E2:E5)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="F6" s="21">
-        <f>SUM(F2:F5)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="G6" s="21">
-        <f>SUM(G2:G5)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="H6" s="21">
-        <f>SUM(H2:H5)</f>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
       <c r="I6" s="21">
-        <f>SUM(I2:I5)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="J6" s="21">
-        <f>SUM(J2:J5)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K6" s="21">
-        <f>SUM(K2:K5)</f>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
       <c r="L6" s="21">
-        <f>SUM(L2:L5)</f>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
     </row>
@@ -25142,49 +25129,50 @@
         <v>119</v>
       </c>
       <c r="C10" s="21">
-        <f t="shared" ref="C10:L10" si="0">SUM(C8:C9)</f>
+        <f t="shared" ref="C10:L10" si="1">SUM(C8:C9)</f>
         <v>119</v>
       </c>
       <c r="D10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="E10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="F10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="G10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="H10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="I10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="J10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="K10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="L10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>